--- a/biology/Virologie/Betanucleorhabdovirus/Betanucleorhabdovirus.xlsx
+++ b/biology/Virologie/Betanucleorhabdovirus/Betanucleorhabdovirus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Betanucleorhabdovirus est un genre de virus de la famille des Rhabdoviridae qui comprend six espèces acceptées par l'ICTV, dont l'espèce-type, Sonchus yellow net betanucleorhabdovirus. Ce sont des virus à ARN à simple brin à polarité négative, classés dans le groupe V de la classification Baltimore. 
-Ce genre est issu de la scission opérée en 2019 de l'ancien genre Nucleorhabdovirus en trois nouveaux genres : Alphanucleorhabdovirus, Betanucleorhabdovirus et Gammanucleorhabdovirus. Les dix espèces rattachées à l'ancien genre sont réparties à raison de six dans le genre Alphanucleorhabdovirus, trois dans le genre Betanucleorhabdovirus, et une dans le genre Gammanucleorhabdovirus. En outre six espèces non classées de la famille des Rhabdoviridae sont affectées aux deux premiers genres (trois dans chaque genre). Cette scission est justifiée par le fait que des analyses phylogénétiques ont montré que le genre Nucléorhabdovirus ne constituait  pas un clade monophylétique[1].
+Ce genre est issu de la scission opérée en 2019 de l'ancien genre Nucleorhabdovirus en trois nouveaux genres : Alphanucleorhabdovirus, Betanucleorhabdovirus et Gammanucleorhabdovirus. Les dix espèces rattachées à l'ancien genre sont réparties à raison de six dans le genre Alphanucleorhabdovirus, trois dans le genre Betanucleorhabdovirus, et une dans le genre Gammanucleorhabdovirus. En outre six espèces non classées de la famille des Rhabdoviridae sont affectées aux deux premiers genres (trois dans chaque genre). Cette scission est justifiée par le fait que des analyses phylogénétiques ont montré que le genre Nucléorhabdovirus ne constituait  pas un clade monophylétique.
 Ces virus infectent des plantes (phytovirus) mono- et dicotylédones, et également certaines espèces d'insectes. Ils se répliquent dans le noyau des cellules infectées tant chez les plantes que chez les insectes.
 </t>
         </is>
@@ -513,10 +525,12 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les virions sont des particules enveloppées, bacilliformes, de 130 à 300 nm de long et de 45 à 100 nm de diamètre[2].
-Le génome est constitué d'une molécule d'ARN à simple brin de sens négatif, linéaire, d'une taille de 11 à 15 kb. Cet ARN code cinq à six protéines[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les virions sont des particules enveloppées, bacilliformes, de 130 à 300 nm de long et de 45 à 100 nm de diamètre.
+Le génome est constitué d'une molécule d'ARN à simple brin de sens négatif, linéaire, d'une taille de 11 à 15 kb. Cet ARN code cinq à six protéines.
 </t>
         </is>
       </c>
@@ -545,10 +559,12 @@
           <t>Transmission</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Betanucleorhabdovirus infectant les plantes sont transmis par des insectes-vecteurs de l'ordre des Hémiptères : des pucerons (SYNV, SYVV), des fulgores ou des cicadelles[3].
-Certains virus sont également transmis lors de la multiplication végétative, et certains peuvent également être transmis par inoculation mécanique de la sève infectée. Ces virus se répliquent toujours aussi bien dans les cellules de l'insecte-vecteur ainsi que chez la plante-hôte[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Betanucleorhabdovirus infectant les plantes sont transmis par des insectes-vecteurs de l'ordre des Hémiptères : des pucerons (SYNV, SYVV), des fulgores ou des cicadelles.
+Certains virus sont également transmis lors de la multiplication végétative, et certains peuvent également être transmis par inoculation mécanique de la sève infectée. Ces virus se répliquent toujours aussi bien dans les cellules de l'insecte-vecteur ainsi que chez la plante-hôte.
 </t>
         </is>
       </c>
@@ -577,9 +593,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (8 février 2021)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (8 février 2021) :
 Alfalfa betanucleorhabdovirus (AaNV)
 Blackcurrant betanucleorhabdovirus (BCaRV)
 Datura yellow vein betanucleorhabdovirus (DYVV)
